--- a/proteins.xlsx
+++ b/proteins.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="418">
   <si>
     <t>Gene Name</t>
   </si>
@@ -1262,7 +1262,13 @@
     <t>&gt;none_REM465 1-29, 138-149, 319-327, 491-515</t>
   </si>
   <si>
-    <t>XIAP</t>
+    <t>HBV:</t>
+  </si>
+  <si>
+    <t>1HHH</t>
+  </si>
+  <si>
+    <t>12, 14, 22, 34, 36, 41, 53, 72, 99, </t>
   </si>
 </sst>
 </file>
@@ -1476,10 +1482,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G144"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A48" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E110" activeCellId="0" pane="topLeft" sqref="E110"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A135" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A141" activeCellId="0" pane="topLeft" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3906,7 +3912,7 @@
       </c>
       <c r="F140" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="141">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="141">
       <c r="A141" s="2" t="s">
         <v>403</v>
       </c>
@@ -3966,11 +3972,28 @@
         <v>414</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="144">
-      <c r="A144" s="2" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="144">
+      <c r="A144" s="2"/>
+      <c r="E144" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="145">
+      <c r="A145" s="0" t="s">
         <v>415</v>
       </c>
-      <c r="E144" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="146">
+      <c r="B146" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="C146" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="D146" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E146" s="0" t="s">
+        <v>417</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
